--- a/2-采购合同/3D打印/3D打印费用合计.xlsx
+++ b/2-采购合同/3D打印/3D打印费用合计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>3D打印费用</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>前端盖B</t>
+  </si>
+  <si>
+    <t>前端盖ABC+风罩ABC</t>
+  </si>
+  <si>
+    <t>后端盖ABC+风罩A+前端盖B</t>
   </si>
 </sst>
 </file>
@@ -85,8 +91,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -107,6 +113,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,14 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,15 +171,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,23 +189,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +234,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -212,39 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +265,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,163 +433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,69 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,6 +485,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -550,6 +508,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,142 +576,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,15 +1032,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1045,10 +1048,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1084,12 +1087,12 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>B3*D3</f>
+        <f t="shared" ref="E3:E16" si="0">B3*D3</f>
         <v>45</v>
       </c>
       <c r="F3">
-        <f>SUM(E3:E16)</f>
-        <v>1610</v>
+        <f>SUM(E3:E18)</f>
+        <v>2210</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1106,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>B4*D4</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -1124,7 +1127,7 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <f>B5*D5</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1142,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <f>B6*D6</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1160,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f>B7*D7</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -1178,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f>B8*D8</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -1196,7 +1199,7 @@
         <v>250</v>
       </c>
       <c r="E9">
-        <f>B9*D9</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
@@ -1214,7 +1217,7 @@
         <v>250</v>
       </c>
       <c r="E10">
-        <f>B10*D10</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
@@ -1232,7 +1235,7 @@
         <v>270</v>
       </c>
       <c r="E11">
-        <f>B11*D11</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
@@ -1250,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <f>B12*D12</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1268,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <f>B13*D13</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1286,7 +1289,7 @@
         <v>270</v>
       </c>
       <c r="E14">
-        <f>B14*D14</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
@@ -1304,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <f>B15*D15</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
@@ -1322,8 +1325,42 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <f>B16*D16</f>
+        <f t="shared" si="0"/>
         <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
